--- a/Test/src/filesandxls/TestCase.xlsx
+++ b/Test/src/filesandxls/TestCase.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
